--- a/example_data/EPA/label_corrected/000264-01078-20180327_2018-12-07_202156.xlsx
+++ b/example_data/EPA/label_corrected/000264-01078-20180327_2018-12-07_202156.xlsx
@@ -622,7 +622,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -649,7 +649,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -730,7 +730,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -903,7 +903,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>93_Referral_Statement</t>
+          <t>93_referral_statement</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Env warning - species || Env warning - water || Application instructions || Off Target Movement</t>
+          <t>off target movement || application instructions || env warning - species || env warning - water</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Mixing || Application Instructions</t>
+          <t>mixing || application instructions</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Mixing || Application Instructions</t>
+          <t>mixing || application instructions</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -1848,7 +1848,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Chemigation || Irrigation || Application Instructions</t>
+          <t>irrigation || application instructions || chemigation</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Chemigation || Irrigation</t>
+          <t>irrigation || chemigation</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2122,7 +2122,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -8086,7 +8086,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G257" t="inlineStr"/>
@@ -8122,7 +8122,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G258" t="inlineStr"/>
@@ -8150,7 +8150,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G259" t="inlineStr"/>
@@ -8186,7 +8186,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G260" t="inlineStr"/>
@@ -8215,7 +8215,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G261" t="inlineStr"/>
@@ -8570,7 +8570,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G271" t="inlineStr"/>
